--- a/testcase_student_management (6).xlsx
+++ b/testcase_student_management (6).xlsx
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -748,7 +750,7 @@
     </row>
     <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -779,7 +781,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -793,7 +795,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -807,7 +809,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -821,7 +823,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -835,7 +837,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -849,7 +851,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -863,7 +865,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -877,7 +879,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>

--- a/testcase_student_management (6).xlsx
+++ b/testcase_student_management (6).xlsx
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -792,6 +792,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -806,6 +807,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -820,6 +822,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -834,6 +837,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -848,6 +852,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -862,6 +867,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -876,6 +882,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -890,6 +897,22 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
